--- a/medicine/Sexualité et sexologie/Les_Désaxées_(film,_1972)/Les_Désaxées_(film,_1972).xlsx
+++ b/medicine/Sexualité et sexologie/Les_Désaxées_(film,_1972)/Les_Désaxées_(film,_1972).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_D%C3%A9sax%C3%A9es_(film,_1972)</t>
+          <t>Les_Désaxées_(film,_1972)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Désaxées est un film français de Michel Lemoine de 1972[1]. C'est la première réalisation signée par le comédien, qui reconnaît s'être largement inspiré de sa propre vie[2]. Son épouse, Janine Reynaud est d'ailleurs sa partenaire à l'écran.
+Les Désaxées est un film français de Michel Lemoine de 1972. C'est la première réalisation signée par le comédien, qui reconnaît s'être largement inspiré de sa propre vie. Son épouse, Janine Reynaud est d'ailleurs sa partenaire à l'écran.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_D%C3%A9sax%C3%A9es_(film,_1972)</t>
+          <t>Les_Désaxées_(film,_1972)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_D%C3%A9sax%C3%A9es_(film,_1972)</t>
+          <t>Les_Désaxées_(film,_1972)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Désaxées
 Réalisation : Michel Lemoine, assisté d'Yves Ellena
@@ -557,8 +573,8 @@
 Genre :  drame / érotique
 Durée : 90  minutes
 Dates de sorties :
- France : 1er novembre 1972[3]
-Interdiction aux moins de 18 ans à sa sortie en salles en France[4].</t>
+ France : 1er novembre 1972
+Interdiction aux moins de 18 ans à sa sortie en salles en France.</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_D%C3%A9sax%C3%A9es_(film,_1972)</t>
+          <t>Les_Désaxées_(film,_1972)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Janine Reynaud : Francis
 Michel Lemoine : Michel
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_D%C3%A9sax%C3%A9es_(film,_1972)</t>
+          <t>Les_Désaxées_(film,_1972)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,7 +647,9 @@
           <t>Éditions en vidéo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2007 : Édition DVD - Éditeur : KVP - Coffret : Les Classiques de l'érotisme - Michel Lemoine (avec Les Chiennes, Les Confidences érotiques d'un lit trop accueillant et Les petites saintes y touchent) - mention : accord parental
 2021 : Édition Blu-Ray - Éditeur  : Le Chat qui fume - Bonus : interview de Michel Lemoine (1h26), films annonces - mention : public averti</t>
